--- a/src/addnhanvien/nhanvien.xlsx
+++ b/src/addnhanvien/nhanvien.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nodeProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21036" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="nhanvien1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>maphongban</t>
   </si>
@@ -60,28 +60,34 @@
     <t>0393368645</t>
   </si>
   <si>
-    <t>Minh thiên nhật Trần</t>
-  </si>
-  <si>
-    <t>Phạm Khải tiên tôn</t>
-  </si>
-  <si>
-    <t>Trần minh Hạo nguyệt</t>
-  </si>
-  <si>
-    <t>Nguyễn khúc vòng vo</t>
-  </si>
-  <si>
-    <t>2000/12/18</t>
+    <t>2014/12/18</t>
+  </si>
+  <si>
+    <t>1986/12/18</t>
+  </si>
+  <si>
+    <t>1987/12/18</t>
+  </si>
+  <si>
+    <t>1989/12/18</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Giang</t>
+  </si>
+  <si>
+    <t>Trần Mạnh Thứ</t>
+  </si>
+  <si>
+    <t>Mai Anh Tào</t>
+  </si>
+  <si>
+    <t>Phan Anh Hải</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,9 +565,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -887,19 +892,19 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,10 +920,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -928,7 +933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -936,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -944,20 +949,20 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
-        <v>43853</v>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -965,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -973,20 +978,20 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1">
-        <v>42038</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -994,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1002,20 +1007,20 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1">
-        <v>40931</v>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1023,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1031,22 +1036,21 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1">
-        <v>44208</v>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6"/>
-      <c r="H6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
